--- a/data/trans_dic/P19F$noche-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P19F$noche-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6941627772936303</v>
+        <v>0.6970573848122729</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7943011589877896</v>
+        <v>0.7930269424839612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7636079888269661</v>
+        <v>0.7629989941396026</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.77935357531884</v>
+        <v>0.7828218514246572</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8633529170757241</v>
+        <v>0.8613128280331367</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8185486537290136</v>
+        <v>0.8185753835615518</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7571247264493924</v>
+        <v>0.7588613408589059</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.7736993735582899</v>
+        <v>0.772973919035735</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.7745197611313527</v>
+        <v>0.7736865878244468</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.807262876394958</v>
+        <v>0.8088111420727083</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8249315302492232</v>
+        <v>0.8245656978583595</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8102382418292728</v>
+        <v>0.8081564687857474</v>
       </c>
     </row>
     <row r="10">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7500908397593961</v>
+        <v>0.7456023613646888</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.7090599337006889</v>
+        <v>0.7140688963528972</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7484272277556425</v>
+        <v>0.7448049347614172</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8508984559677039</v>
+        <v>0.8555371201097548</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8297040862223062</v>
+        <v>0.8312797673925056</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8318802554885405</v>
+        <v>0.8263884598216543</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.7551403809807986</v>
+        <v>0.757179449290901</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.7847654316806562</v>
+        <v>0.786635442620046</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7772178498019332</v>
+        <v>0.7788398362688559</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7963217470207995</v>
+        <v>0.796229127013909</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8243907407597304</v>
+        <v>0.826792533687667</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8058896680049755</v>
+        <v>0.807181375601503</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>272203</v>
+        <v>273339</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>423438</v>
+        <v>422759</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>706511</v>
+        <v>705947</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>305609</v>
+        <v>306969</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>460249</v>
+        <v>459162</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>757343</v>
+        <v>757368</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>858024</v>
+        <v>859993</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>776557</v>
+        <v>775829</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1655119</v>
+        <v>1653338</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>914844</v>
+        <v>916599</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>827979</v>
+        <v>827612</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>1731448</v>
+        <v>1726999</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>182145</v>
+        <v>181055</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>144518</v>
+        <v>145539</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>334283</v>
+        <v>332665</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>206624</v>
+        <v>207750</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>169108</v>
+        <v>169429</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>371557</v>
+        <v>369104</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>1335261</v>
+        <v>1338867</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1365967</v>
+        <v>1369222</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>2727129</v>
+        <v>2732820</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>1408079</v>
+        <v>1407915</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>1434939</v>
+        <v>1439120</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>2827734</v>
+        <v>2832266</v>
       </c>
     </row>
     <row r="20">
